--- a/113 symptoms signs abnormal/RES 113 symptoms signs abnormal Findings sex race 2020Jul19.XLSX
+++ b/113 symptoms signs abnormal/RES 113 symptoms signs abnormal Findings sex race 2020Jul19.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bague\Documents\GitHub\FLHealthCHARTS\113 symptoms signs abnormal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bague\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF17FDB-1193-41BC-97AF-491397C607D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1209747-143A-41D3-BD76-86D0A46E5F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
-    <t>Recorded Deaths by Year by Sex by Race by Residence County</t>
+    <t>Resident Death Counts by Year by Sex by Race by Residence County</t>
   </si>
   <si>
     <t>113 Causes of Death=Symptoms, Signs &amp; Abnormal Findings</t>
   </si>
   <si>
-    <t>Recorded Deaths</t>
+    <t>Resident Deaths</t>
   </si>
   <si>
     <t>2020 (Provisional)</t>
@@ -1587,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
@@ -1599,25 +1599,25 @@
         <v>1</v>
       </c>
       <c r="K7" s="2">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>48</v>
+      </c>
+      <c r="P7" s="2">
         <v>25</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>46</v>
-      </c>
-      <c r="P7" s="2">
-        <v>24</v>
-      </c>
       <c r="Q7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R7" s="2">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U7" s="2">
         <v>23</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD7" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE7" s="2">
         <v>5</v>
@@ -1668,22 +1668,22 @@
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI7" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK7" s="2">
         <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="AP7" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AQ7" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1846,23 +1846,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>13</v>
       </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="2">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U9" s="2">
         <v>16</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="2">
         <v>28</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>21</v>
       </c>
       <c r="AE9" s="2">
         <v>3</v>
@@ -1930,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="AH9" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AI9" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
       </c>
       <c r="AM9" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AP9" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AQ9" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="AJ10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="AP10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P11" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2">
         <v>3</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U11" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V11" s="2">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Z11" s="2">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AD11" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF11" s="2">
         <v>3</v>
@@ -2192,22 +2192,22 @@
         <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AI11" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="AJ11" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="2">
         <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP11" s="2">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="AQ11" s="2">
-        <v>290</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2254,25 +2254,25 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>92</v>
+      </c>
+      <c r="P12" s="2">
         <v>34</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>72</v>
-      </c>
-      <c r="P12" s="2">
-        <v>32</v>
-      </c>
       <c r="Q12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R12" s="2">
         <v>1</v>
@@ -2281,22 +2281,22 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U12" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="V12" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
@@ -2308,37 +2308,37 @@
         <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="AE12" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="2">
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AI12" s="2">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="AJ12" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL12" s="2">
         <v>0</v>
       </c>
       <c r="AM12" s="2">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="AQ12" s="2">
-        <v>376</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="2">
         <v>1</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="AP13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2489,22 +2489,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2528,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P14" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U14" s="2">
         <v>17</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD14" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AE14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="2">
         <v>1</v>
@@ -2585,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AI14" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AJ14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK14" s="2">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="AP14" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AQ14" s="2">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2">
         <v>6</v>
@@ -2704,34 +2704,34 @@
         <v>23</v>
       </c>
       <c r="AD15" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AE15" s="2">
         <v>1</v>
       </c>
       <c r="AF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="2">
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI15" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="2">
         <v>1</v>
       </c>
       <c r="AL15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AQ15" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2751,25 +2751,25 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6</v>
-      </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P16" s="2">
         <v>8</v>
@@ -2817,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" s="2">
         <v>0</v>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="2">
         <v>0</v>
@@ -2847,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI16" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="2">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AP16" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AQ16" s="2">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="2">
         <v>4</v>
@@ -2936,23 +2936,23 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
+        <v>22</v>
+      </c>
+      <c r="U17" s="2">
+        <v>19</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
         <v>20</v>
       </c>
-      <c r="U17" s="2">
-        <v>18</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>19</v>
-      </c>
       <c r="Z17" s="2">
         <v>0</v>
       </c>
@@ -2963,37 +2963,37 @@
         <v>0</v>
       </c>
       <c r="AC17" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD17" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="AE17" s="2">
         <v>0</v>
       </c>
       <c r="AF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="2">
         <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="AI17" s="2">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="AJ17" s="2">
         <v>3</v>
       </c>
       <c r="AK17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL17" s="2">
         <v>0</v>
       </c>
       <c r="AM17" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -3002,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="AP17" s="2">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="AQ17" s="2">
-        <v>111</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="2">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="2">
         <v>8</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AP18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ18" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="P19" s="2">
         <v>29</v>
@@ -3201,19 +3201,19 @@
         <v>38</v>
       </c>
       <c r="U19" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="V19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W19" s="2">
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="2">
         <v>0</v>
@@ -3225,37 +3225,37 @@
         <v>0</v>
       </c>
       <c r="AC19" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AD19" s="2">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AE19" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="2">
         <v>0</v>
       </c>
       <c r="AH19" s="2">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AI19" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AJ19" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AK19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19" s="2">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="AN19" s="2">
         <v>1</v>
@@ -3264,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="AP19" s="2">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="AQ19" s="2">
-        <v>376</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="2">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="AQ20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="AD21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="2">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI21" s="2">
         <v>6</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="AP21" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ21" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H22" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2">
         <v>3</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P22" s="2">
         <v>29</v>
@@ -3594,7 +3594,7 @@
         <v>42</v>
       </c>
       <c r="U22" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V22" s="2">
         <v>9</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -3618,37 +3618,37 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>62</v>
+      </c>
+      <c r="AI22" s="2">
         <v>78</v>
       </c>
-      <c r="AD22" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE22" s="2">
+      <c r="AJ22" s="2">
+        <v>32</v>
+      </c>
+      <c r="AK22" s="2">
         <v>5</v>
       </c>
-      <c r="AF22" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>48</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>4</v>
-      </c>
       <c r="AL22" s="2">
         <v>1</v>
       </c>
       <c r="AM22" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AN22" s="2">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="AP22" s="2">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="AQ22" s="2">
-        <v>267</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3668,10 +3668,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3680,22 +3680,22 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="2">
         <v>5</v>
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U23" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V23" s="2">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="2">
         <v>0</v>
@@ -3749,37 +3749,37 @@
         <v>0</v>
       </c>
       <c r="AC23" s="2">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>32</v>
+      </c>
+      <c r="AI23" s="2">
         <v>29</v>
       </c>
-      <c r="AD23" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="AJ23" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK23" s="2">
         <v>4</v>
       </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>25</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>15</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>13</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>3</v>
-      </c>
       <c r="AL23" s="2">
         <v>0</v>
       </c>
       <c r="AM23" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="AP23" s="2">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AQ23" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -3811,11 +3811,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
         <v>6</v>
       </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -3880,11 +3880,11 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="2">
         <v>6</v>
       </c>
-      <c r="AD24" s="2">
-        <v>1</v>
-      </c>
       <c r="AE24" s="2">
         <v>0</v>
       </c>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="AH24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI24" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AJ24" s="2">
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
       </c>
       <c r="AM24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="AP24" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AQ24" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="2">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4145,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="AD26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" s="2">
         <v>4</v>
@@ -4157,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="AH26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ26" s="2">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -4181,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="AP26" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ26" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4454,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" s="2">
         <v>2</v>
@@ -4511,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
@@ -4535,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD29" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE29" s="2">
         <v>0</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="AH29" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="2">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="2">
         <v>0</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="AP29" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AQ29" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4669,10 +4669,10 @@
         <v>4</v>
       </c>
       <c r="AD30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="2">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="AH30" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI30" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ30" s="2">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN30" s="2">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="AP30" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AQ30" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="AI31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ31" s="2">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -4836,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="AP31" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ31" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="2">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI32" s="2">
         <v>4</v>
@@ -4955,10 +4955,10 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN32" s="2">
         <v>0</v>
@@ -4967,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="AP32" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ32" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
@@ -4990,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G33" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P33" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q33" s="2">
         <v>2</v>
@@ -5032,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U33" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V33" s="2">
         <v>2</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z33" s="2">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD33" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AE33" s="2">
         <v>2</v>
@@ -5074,22 +5074,22 @@
         <v>0</v>
       </c>
       <c r="AH33" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI33" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AJ33" s="2">
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
       </c>
       <c r="AM33" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AP33" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AQ33" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5166,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="U34" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z34" s="2">
         <v>0</v>
@@ -5190,37 +5190,37 @@
         <v>0</v>
       </c>
       <c r="AC34" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD34" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="2">
         <v>0</v>
       </c>
       <c r="AH34" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI34" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ34" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="AP34" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AQ34" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5240,10 +5240,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -5252,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G35" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H35" s="2">
         <v>9</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -5279,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P35" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q35" s="2">
         <v>16</v>
@@ -5294,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U35" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V35" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W35" s="2">
         <v>5</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Z35" s="2">
         <v>0</v>
@@ -5321,13 +5321,13 @@
         <v>0</v>
       </c>
       <c r="AC35" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AD35" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AE35" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF35" s="2">
         <v>2</v>
@@ -5336,22 +5336,22 @@
         <v>0</v>
       </c>
       <c r="AH35" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="AI35" s="2">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="AJ35" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK35" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="AN35" s="2">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="AP35" s="2">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="AQ35" s="2">
-        <v>680</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z36" s="2">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="2">
         <v>0</v>
@@ -5467,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ36" s="2">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="AP36" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ36" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5502,10 +5502,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -5514,65 +5514,65 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>21</v>
+      </c>
+      <c r="P37" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>6</v>
+      </c>
+      <c r="U37" s="2">
         <v>4</v>
       </c>
-      <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>3</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>8</v>
-      </c>
-      <c r="P37" s="2">
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
         <v>4</v>
       </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>4</v>
-      </c>
-      <c r="U37" s="2">
-        <v>2</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>2</v>
-      </c>
       <c r="Z37" s="2">
         <v>0</v>
       </c>
@@ -5583,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="AC37" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD37" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE37" s="2">
         <v>1</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="AH37" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI37" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="AP37" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="AQ37" s="2">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
@@ -5672,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="2">
         <v>2</v>
@@ -5687,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
@@ -5714,28 +5714,28 @@
         <v>0</v>
       </c>
       <c r="AC38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
         <v>5</v>
       </c>
-      <c r="AD38" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>3</v>
-      </c>
       <c r="AI38" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="AP38" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AQ38" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -5776,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="2">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="2">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD39" s="2">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         <v>2</v>
       </c>
       <c r="AI39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AM39" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="AP39" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ39" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -6038,53 +6038,53 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2">
         <v>13</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>15</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>30</v>
+      </c>
+      <c r="P41" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>13</v>
+      </c>
+      <c r="U41" s="2">
         <v>8</v>
       </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>9</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>22</v>
-      </c>
-      <c r="P41" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>12</v>
-      </c>
-      <c r="U41" s="2">
-        <v>7</v>
-      </c>
       <c r="V41" s="2">
         <v>0</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z41" s="2">
         <v>0</v>
@@ -6107,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="AC41" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD41" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AE41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="2">
         <v>0</v>
@@ -6122,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="AH41" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AI41" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AJ41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AN41" s="2">
         <v>0</v>
@@ -6146,10 +6146,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AQ41" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -6169,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="P42" s="2">
         <v>27</v>
@@ -6214,7 +6214,7 @@
         <v>28</v>
       </c>
       <c r="U42" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V42" s="2">
         <v>2</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z42" s="2">
         <v>0</v>
@@ -6238,37 +6238,37 @@
         <v>0</v>
       </c>
       <c r="AC42" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD42" s="2">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AE42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG42" s="2">
         <v>0</v>
       </c>
       <c r="AH42" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="AI42" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AJ42" s="2">
         <v>4</v>
       </c>
       <c r="AK42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
       </c>
       <c r="AM42" s="2">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AN42" s="2">
         <v>0</v>
@@ -6277,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="AP42" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AQ42" s="2">
-        <v>167</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -6300,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G43" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H43" s="2">
         <v>4</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P43" s="2">
         <v>15</v>
@@ -6372,35 +6372,35 @@
         <v>34</v>
       </c>
       <c r="AD43" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>25</v>
+      </c>
+      <c r="AI43" s="2">
         <v>16</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AJ43" s="2">
         <v>4</v>
       </c>
-      <c r="AF43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="2">
+      <c r="AK43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="2">
         <v>20</v>
       </c>
-      <c r="AI43" s="2">
-        <v>11</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="2">
-        <v>13</v>
-      </c>
       <c r="AN43" s="2">
         <v>0</v>
       </c>
@@ -6408,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="AP43" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AQ43" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>11</v>
       </c>
       <c r="U44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V44" s="2">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD44" s="2">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         <v>19</v>
       </c>
       <c r="AQ44" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="2">
         <v>1</v>
@@ -6765,7 +6765,7 @@
         <v>3</v>
       </c>
       <c r="AD46" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE46" s="2">
         <v>1</v>
@@ -6777,22 +6777,22 @@
         <v>0</v>
       </c>
       <c r="AH46" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI46" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AN46" s="2">
         <v>0</v>
@@ -6801,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="AP46" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AQ46" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6812,25 +6812,25 @@
         <v>51</v>
       </c>
       <c r="B47" s="2">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>35</v>
+      </c>
+      <c r="G47" s="2">
         <v>32</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2">
-        <v>25</v>
-      </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P47" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U47" s="2">
         <v>39</v>
@@ -6893,28 +6893,28 @@
         <v>0</v>
       </c>
       <c r="AC47" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AE47" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG47" s="2">
         <v>0</v>
       </c>
       <c r="AH47" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AI47" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AJ47" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AN47" s="2">
         <v>0</v>
@@ -6932,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="AP47" s="2">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="AQ47" s="2">
-        <v>201</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
@@ -6955,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G48" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
@@ -6982,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="P48" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q48" s="2">
         <v>4</v>
@@ -6997,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U48" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V48" s="2">
         <v>2</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z48" s="2">
         <v>0</v>
@@ -7024,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="AC48" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD48" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AE48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF48" s="2">
         <v>0</v>
@@ -7039,13 +7039,13 @@
         <v>0</v>
       </c>
       <c r="AH48" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AI48" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AJ48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="2">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AN48" s="2">
         <v>0</v>
@@ -7063,10 +7063,10 @@
         <v>0</v>
       </c>
       <c r="AP48" s="2">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AQ48" s="2">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7074,7 +7074,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -7086,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P49" s="2">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="U49" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z49" s="2">
         <v>0</v>
@@ -7155,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="AC49" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD49" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AE49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF49" s="2">
         <v>0</v>
@@ -7170,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="AH49" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI49" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AJ49" s="2">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AN49" s="2">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="AP49" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AQ49" s="2">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P50" s="2">
         <v>2</v>
@@ -7289,7 +7289,7 @@
         <v>8</v>
       </c>
       <c r="AD50" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE50" s="2">
         <v>1</v>
@@ -7301,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="AH50" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI50" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ50" s="2">
         <v>2</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AM50" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AN50" s="2">
         <v>0</v>
@@ -7325,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="AP50" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AQ50" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P51" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U51" s="2">
         <v>5</v>
@@ -7417,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD51" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE51" s="2">
         <v>0</v>
@@ -7432,13 +7432,13 @@
         <v>0</v>
       </c>
       <c r="AH51" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI51" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AJ51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK51" s="2">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AN51" s="2">
         <v>0</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP51" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AQ51" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7467,35 +7467,35 @@
         <v>56</v>
       </c>
       <c r="B52" s="2">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>19</v>
+      </c>
+      <c r="G52" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>18</v>
-      </c>
-      <c r="G52" s="2">
-        <v>11</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>13</v>
-      </c>
       <c r="L52" s="2">
         <v>0</v>
       </c>
@@ -7506,13 +7506,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P52" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -7521,56 +7521,56 @@
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U52" s="2">
+        <v>5</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE52" s="2">
         <v>3</v>
       </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
-        <v>0</v>
-      </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
+      <c r="AF52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>26</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ52" s="2">
         <v>3</v>
       </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>15</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI52" s="2">
-        <v>11</v>
-      </c>
-      <c r="AJ52" s="2">
-        <v>1</v>
-      </c>
       <c r="AK52" s="2">
         <v>0</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AN52" s="2">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="AP52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AQ52" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -7610,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P53" s="2">
         <v>9</v>
@@ -7682,7 +7682,7 @@
         <v>18</v>
       </c>
       <c r="AD53" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE53" s="2">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="AH53" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ53" s="2">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN53" s="2">
         <v>0</v>
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="AP53" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AQ53" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7729,25 +7729,25 @@
         <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G54" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2">
         <v>5</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -7768,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P54" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="2">
         <v>3</v>
@@ -7783,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="T54" s="2">
+        <v>30</v>
+      </c>
+      <c r="U54" s="2">
         <v>28</v>
-      </c>
-      <c r="U54" s="2">
-        <v>24</v>
       </c>
       <c r="V54" s="2">
         <v>3</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z54" s="2">
         <v>0</v>
@@ -7810,37 +7810,37 @@
         <v>0</v>
       </c>
       <c r="AC54" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD54" s="2">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AE54" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF54" s="2">
         <v>5</v>
       </c>
-      <c r="AF54" s="2">
-        <v>1</v>
-      </c>
       <c r="AG54" s="2">
         <v>0</v>
       </c>
       <c r="AH54" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI54" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="AJ54" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AK54" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
       </c>
       <c r="AM54" s="2">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AN54" s="2">
         <v>0</v>
@@ -7849,10 +7849,10 @@
         <v>0</v>
       </c>
       <c r="AP54" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AQ54" s="2">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7860,10 +7860,10 @@
         <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2">
         <v>7</v>
@@ -7899,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P55" s="2">
         <v>7</v>
       </c>
       <c r="Q55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -7914,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="T55" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U55" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V55" s="2">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z55" s="2">
         <v>0</v>
@@ -7941,28 +7941,28 @@
         <v>0</v>
       </c>
       <c r="AC55" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="2">
         <v>17</v>
       </c>
-      <c r="AD55" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="2">
-        <v>3</v>
-      </c>
       <c r="AI55" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK55" s="2">
         <v>2</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AN55" s="2">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="AP55" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AQ55" s="2">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2">
         <v>4</v>
@@ -8003,22 +8003,22 @@
         <v>1</v>
       </c>
       <c r="F56" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G56" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H56" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -8030,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="P56" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q56" s="2">
         <v>4</v>
@@ -8045,22 +8045,22 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="U56" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="V56" s="2">
         <v>7</v>
       </c>
       <c r="W56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Z56" s="2">
         <v>0</v>
@@ -8072,37 +8072,37 @@
         <v>0</v>
       </c>
       <c r="AC56" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD56" s="2">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="AE56" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF56" s="2">
         <v>4</v>
       </c>
       <c r="AG56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH56" s="2">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="AI56" s="2">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AJ56" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK56" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL56" s="2">
         <v>0</v>
       </c>
       <c r="AM56" s="2">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="AN56" s="2">
         <v>0</v>
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="AP56" s="2">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AQ56" s="2">
-        <v>531</v>
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8122,7 +8122,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2">
         <v>6</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G57" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -8149,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -8161,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="P57" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q57" s="2">
         <v>1</v>
@@ -8176,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U57" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V57" s="2">
         <v>1</v>
@@ -8188,10 +8188,10 @@
         <v>3</v>
       </c>
       <c r="X57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z57" s="2">
         <v>0</v>
@@ -8203,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AD57" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AE57" s="2">
         <v>3</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="AH57" s="2">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AI57" s="2">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="AJ57" s="2">
         <v>4</v>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="AM57" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AN57" s="2">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="AP57" s="2">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AQ57" s="2">
-        <v>679</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8253,7 +8253,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C58" s="2">
         <v>33</v>
@@ -8265,22 +8265,22 @@
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="G58" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H58" s="2">
         <v>28</v>
       </c>
       <c r="I58" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="5">
-        <v>1076</v>
+        <v>1090</v>
       </c>
       <c r="P58" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q58" s="2">
         <v>34</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="U58" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="V58" s="2">
         <v>23</v>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="Y58" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Z58" s="2">
         <v>0</v>
@@ -8334,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="AC58" s="5">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="AD58" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="AE58" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF58" s="2">
         <v>9</v>
@@ -8349,22 +8349,22 @@
         <v>0</v>
       </c>
       <c r="AH58" s="2">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="AI58" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AJ58" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AK58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL58" s="2">
         <v>0</v>
       </c>
       <c r="AM58" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="AN58" s="2">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="AP58" s="2">
-        <v>658</v>
+        <v>725</v>
       </c>
       <c r="AQ58" s="5">
-        <v>2772</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2">
         <v>4</v>
@@ -8396,38 +8396,38 @@
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G59" s="2">
+        <v>24</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>25</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>50</v>
+      </c>
+      <c r="P59" s="2">
         <v>20</v>
       </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>21</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2">
-        <v>18</v>
-      </c>
       <c r="Q59" s="2">
         <v>0</v>
       </c>
@@ -8438,10 +8438,10 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U59" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V59" s="2">
         <v>7</v>
@@ -8450,10 +8450,10 @@
         <v>1</v>
       </c>
       <c r="X59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z59" s="2">
         <v>0</v>
@@ -8465,37 +8465,37 @@
         <v>0</v>
       </c>
       <c r="AC59" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD59" s="2">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AE59" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AF59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG59" s="2">
         <v>0</v>
       </c>
       <c r="AH59" s="2">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="AI59" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AJ59" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL59" s="2">
         <v>0</v>
       </c>
       <c r="AM59" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="AN59" s="2">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>0</v>
       </c>
       <c r="AP59" s="2">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="AQ59" s="2">
-        <v>284</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8530,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P60" s="2">
         <v>4</v>
@@ -8599,7 +8599,7 @@
         <v>13</v>
       </c>
       <c r="AD60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE60" s="2">
         <v>1</v>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="AH60" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI60" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ60" s="2">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN60" s="2">
         <v>0</v>
@@ -8635,10 +8635,10 @@
         <v>0</v>
       </c>
       <c r="AP60" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ60" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8646,10 +8646,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -8658,80 +8658,80 @@
         <v>0</v>
       </c>
       <c r="F61" s="2">
+        <v>16</v>
+      </c>
+      <c r="G61" s="2">
+        <v>7</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>7</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>23</v>
+      </c>
+      <c r="P61" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
         <v>14</v>
       </c>
-      <c r="G61" s="2">
-        <v>5</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>5</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>19</v>
-      </c>
-      <c r="P61" s="2">
+      <c r="U61" s="2">
+        <v>8</v>
+      </c>
+      <c r="V61" s="2">
+        <v>2</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
         <v>10</v>
       </c>
-      <c r="Q61" s="2">
-        <v>1</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2">
-        <v>11</v>
-      </c>
-      <c r="U61" s="2">
-        <v>7</v>
-      </c>
-      <c r="V61" s="2">
-        <v>2</v>
-      </c>
-      <c r="W61" s="2">
-        <v>0</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="2">
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD61" s="2">
         <v>9</v>
       </c>
-      <c r="Z61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>1</v>
-      </c>
       <c r="AE61" s="2">
         <v>0</v>
       </c>
@@ -8742,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AH61" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI61" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AJ61" s="2">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AN61" s="2">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="AP61" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AQ61" s="2">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8792,10 +8792,10 @@
         <v>10</v>
       </c>
       <c r="G62" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L62" s="2">
         <v>0</v>
@@ -8816,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P62" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="2">
         <v>3</v>
@@ -8831,41 +8831,41 @@
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U62" s="2">
+        <v>6</v>
+      </c>
+      <c r="V62" s="2">
+        <v>2</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE62" s="2">
         <v>3</v>
       </c>
-      <c r="V62" s="2">
-        <v>2</v>
-      </c>
-      <c r="W62" s="2">
-        <v>0</v>
-      </c>
-      <c r="X62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD62" s="2">
-        <v>11</v>
-      </c>
-      <c r="AE62" s="2">
-        <v>0</v>
-      </c>
       <c r="AF62" s="2">
         <v>0</v>
       </c>
@@ -8873,13 +8873,13 @@
         <v>0</v>
       </c>
       <c r="AH62" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AI62" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AJ62" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK62" s="2">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AN62" s="2">
         <v>0</v>
@@ -8897,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="AP62" s="2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AQ62" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -8908,7 +8908,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="2">
         <v>10</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P63" s="2">
         <v>7</v>
@@ -8992,25 +8992,25 @@
         <v>12</v>
       </c>
       <c r="AD63" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH63" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AI63" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="2">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AN63" s="2">
         <v>0</v>
@@ -9028,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AP63" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AQ63" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9039,7 +9039,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -9051,65 +9051,65 @@
         <v>0</v>
       </c>
       <c r="F64" s="2">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2">
+        <v>47</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>49</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>113</v>
+      </c>
+      <c r="P64" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>1</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" s="2">
+        <v>56</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
         <v>57</v>
       </c>
-      <c r="G64" s="2">
-        <v>35</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>37</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>94</v>
-      </c>
-      <c r="P64" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>1</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>75</v>
-      </c>
-      <c r="U64" s="2">
-        <v>54</v>
-      </c>
-      <c r="V64" s="2">
-        <v>1</v>
-      </c>
-      <c r="W64" s="2">
-        <v>0</v>
-      </c>
-      <c r="X64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>55</v>
-      </c>
       <c r="Z64" s="2">
         <v>0</v>
       </c>
@@ -9120,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="AC64" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AD64" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AE64" s="2">
         <v>2</v>
@@ -9135,22 +9135,22 @@
         <v>0</v>
       </c>
       <c r="AH64" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AI64" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AJ64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL64" s="2">
         <v>0</v>
       </c>
       <c r="AM64" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AN64" s="2">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="AP64" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="AQ64" s="2">
-        <v>370</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9170,64 +9170,64 @@
         <v>69</v>
       </c>
       <c r="B65" s="2">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>16</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>30</v>
+      </c>
+      <c r="P65" s="2">
         <v>10</v>
       </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="Q65" s="2">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
         <v>11</v>
       </c>
-      <c r="G65" s="2">
-        <v>11</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2</v>
-      </c>
-      <c r="I65" s="2">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>15</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>26</v>
-      </c>
-      <c r="P65" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>1</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2">
-        <v>10</v>
-      </c>
       <c r="U65" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V65" s="2">
         <v>3</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z65" s="2">
         <v>0</v>
@@ -9251,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="AC65" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD65" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE65" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF65" s="2">
         <v>1</v>
@@ -9266,22 +9266,22 @@
         <v>0</v>
       </c>
       <c r="AH65" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AI65" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK65" s="2">
         <v>2</v>
       </c>
       <c r="AL65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AN65" s="2">
         <v>0</v>
@@ -9290,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="AP65" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AQ65" s="2">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9301,7 +9301,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -9313,10 +9313,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L66" s="2">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P66" s="2">
         <v>5</v>
@@ -9358,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="U66" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V66" s="2">
         <v>2</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z66" s="2">
         <v>0</v>
@@ -9382,25 +9382,25 @@
         <v>0</v>
       </c>
       <c r="AC66" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD66" s="2">
         <v>13</v>
       </c>
-      <c r="AD66" s="2">
-        <v>1</v>
-      </c>
       <c r="AE66" s="2">
         <v>0</v>
       </c>
       <c r="AF66" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG66" s="2">
         <v>0</v>
       </c>
       <c r="AH66" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AI66" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AJ66" s="2">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AN66" s="2">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="AP66" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AQ66" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9447,7 +9447,7 @@
         <v>4</v>
       </c>
       <c r="G67" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L67" s="2">
         <v>0</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P67" s="2">
         <v>5</v>
@@ -9516,25 +9516,25 @@
         <v>10</v>
       </c>
       <c r="AD67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI67" s="2">
         <v>3</v>
       </c>
-      <c r="AE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI67" s="2">
-        <v>2</v>
-      </c>
       <c r="AJ67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="2">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN67" s="2">
         <v>0</v>
@@ -9552,10 +9552,10 @@
         <v>0</v>
       </c>
       <c r="AP67" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ67" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="AI69" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ69" s="2">
         <v>3</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="AM69" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN69" s="2">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>0</v>
       </c>
       <c r="AP69" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ69" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -9825,10 +9825,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -9837,65 +9837,65 @@
         <v>0</v>
       </c>
       <c r="F70" s="2">
+        <v>18</v>
+      </c>
+      <c r="G70" s="2">
+        <v>29</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>29</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>47</v>
+      </c>
+      <c r="P70" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>1</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>23</v>
+      </c>
+      <c r="U70" s="2">
         <v>15</v>
       </c>
-      <c r="G70" s="2">
-        <v>19</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>19</v>
-      </c>
-      <c r="L70" s="2">
-        <v>0</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70" s="2">
-        <v>34</v>
-      </c>
-      <c r="P70" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0</v>
-      </c>
-      <c r="S70" s="2">
-        <v>0</v>
-      </c>
-      <c r="T70" s="2">
+      <c r="V70" s="2">
+        <v>4</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="2">
         <v>20</v>
       </c>
-      <c r="U70" s="2">
-        <v>11</v>
-      </c>
-      <c r="V70" s="2">
-        <v>3</v>
-      </c>
-      <c r="W70" s="2">
-        <v>0</v>
-      </c>
-      <c r="X70" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>14</v>
-      </c>
       <c r="Z70" s="2">
         <v>0</v>
       </c>
@@ -9906,13 +9906,13 @@
         <v>0</v>
       </c>
       <c r="AC70" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AD70" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AE70" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF70" s="2">
         <v>0</v>
@@ -9921,10 +9921,10 @@
         <v>0</v>
       </c>
       <c r="AH70" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AI70" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AJ70" s="2">
         <v>3</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AM70" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN70" s="2">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AP70" s="2">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="AQ70" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="AD71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE71" s="2">
         <v>0</v>
@@ -10052,13 +10052,13 @@
         <v>0</v>
       </c>
       <c r="AH71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI71" s="2">
         <v>1</v>
       </c>
       <c r="AJ71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK71" s="2">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="AM71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN71" s="2">
         <v>0</v>
@@ -10076,10 +10076,10 @@
         <v>0</v>
       </c>
       <c r="AP71" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ71" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -10090,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -10099,53 +10099,53 @@
         <v>0</v>
       </c>
       <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>7</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>11</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="T72" s="2">
+        <v>0</v>
+      </c>
+      <c r="U72" s="2">
         <v>3</v>
       </c>
-      <c r="G72" s="2">
-        <v>4</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>5</v>
-      </c>
-      <c r="L72" s="2">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72" s="2">
-        <v>8</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0</v>
-      </c>
-      <c r="T72" s="2">
-        <v>0</v>
-      </c>
-      <c r="U72" s="2">
-        <v>1</v>
-      </c>
       <c r="V72" s="2">
         <v>0</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z72" s="2">
         <v>0</v>
@@ -10168,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="AC72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD72" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE72" s="2">
         <v>1</v>
@@ -10183,10 +10183,10 @@
         <v>0</v>
       </c>
       <c r="AH72" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI72" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ72" s="2">
         <v>0</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="AM72" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN72" s="2">
         <v>0</v>
@@ -10207,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="AP72" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AQ72" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="AI73" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ73" s="2">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="AM73" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN73" s="2">
         <v>0</v>
@@ -10338,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="AP73" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ73" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -10349,130 +10349,130 @@
         <v>7</v>
       </c>
       <c r="B74" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>5</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>5</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>5</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
+      <c r="T74" s="2">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2">
+        <v>2</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" s="2">
-        <v>64</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="AD74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="2">
         <v>9</v>
-      </c>
-      <c r="I74" s="2">
-        <v>4</v>
-      </c>
-      <c r="J74" s="2">
-        <v>7</v>
-      </c>
-      <c r="K74" s="2">
-        <v>84</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>5</v>
-      </c>
-      <c r="N74" s="2">
-        <v>6</v>
-      </c>
-      <c r="O74" s="2">
-        <v>141</v>
-      </c>
-      <c r="P74" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2">
-        <v>1</v>
-      </c>
-      <c r="S74" s="2">
-        <v>2</v>
-      </c>
-      <c r="T74" s="2">
-        <v>36</v>
-      </c>
-      <c r="U74" s="2">
-        <v>61</v>
-      </c>
-      <c r="V74" s="2">
-        <v>9</v>
-      </c>
-      <c r="W74" s="2">
-        <v>2</v>
-      </c>
-      <c r="X74" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC74" s="2">
-        <v>127</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>65</v>
-      </c>
-      <c r="AE74" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI74" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ74" s="2">
-        <v>15</v>
-      </c>
-      <c r="AK74" s="2">
-        <v>9</v>
-      </c>
-      <c r="AL74" s="2">
-        <v>9</v>
-      </c>
-      <c r="AM74" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>7</v>
-      </c>
-      <c r="AO74" s="2">
-        <v>7</v>
-      </c>
-      <c r="AP74" s="2">
-        <v>249</v>
-      </c>
-      <c r="AQ74" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -10480,130 +10480,130 @@
         <v>4</v>
       </c>
       <c r="B75" s="6">
-        <v>1516</v>
+        <v>1631</v>
       </c>
       <c r="C75" s="3">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D75" s="3">
+        <v>33</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1825</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1266</v>
+      </c>
+      <c r="H75" s="3">
+        <v>147</v>
+      </c>
+      <c r="I75" s="3">
         <v>32</v>
       </c>
-      <c r="E75" s="3">
-        <v>5</v>
-      </c>
-      <c r="F75" s="6">
-        <v>1698</v>
-      </c>
-      <c r="G75" s="6">
-        <v>1121</v>
-      </c>
-      <c r="H75" s="3">
-        <v>135</v>
-      </c>
-      <c r="I75" s="3">
-        <v>33</v>
-      </c>
       <c r="J75" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K75" s="6">
-        <v>1302</v>
+        <v>1452</v>
       </c>
       <c r="L75" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N75" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O75" s="6">
-        <v>3008</v>
+        <v>3279</v>
       </c>
       <c r="P75" s="6">
-        <v>1550</v>
+        <v>1577</v>
       </c>
       <c r="Q75" s="3">
+        <v>157</v>
+      </c>
+      <c r="R75" s="3">
+        <v>31</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="6">
+        <v>1765</v>
+      </c>
+      <c r="U75" s="6">
+        <v>1392</v>
+      </c>
+      <c r="V75" s="3">
         <v>151</v>
-      </c>
-      <c r="R75" s="3">
-        <v>32</v>
-      </c>
-      <c r="S75" s="3">
-        <v>2</v>
-      </c>
-      <c r="T75" s="6">
-        <v>1735</v>
-      </c>
-      <c r="U75" s="6">
-        <v>1362</v>
-      </c>
-      <c r="V75" s="3">
-        <v>153</v>
       </c>
       <c r="W75" s="3">
         <v>30</v>
       </c>
       <c r="X75" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y75" s="6">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="Z75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>3345</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>2005</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>246</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>57</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH75" s="6">
+        <v>2310</v>
+      </c>
+      <c r="AI75" s="6">
+        <v>2625</v>
+      </c>
+      <c r="AJ75" s="3">
+        <v>400</v>
+      </c>
+      <c r="AK75" s="3">
+        <v>72</v>
+      </c>
+      <c r="AL75" s="3">
         <v>9</v>
       </c>
-      <c r="AB75" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC75" s="6">
-        <v>3301</v>
-      </c>
-      <c r="AD75" s="6">
-        <v>1448</v>
-      </c>
-      <c r="AE75" s="3">
-        <v>183</v>
-      </c>
-      <c r="AF75" s="3">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH75" s="6">
-        <v>1672</v>
-      </c>
-      <c r="AI75" s="6">
-        <v>1962</v>
-      </c>
-      <c r="AJ75" s="3">
-        <v>323</v>
-      </c>
-      <c r="AK75" s="3">
-        <v>54</v>
-      </c>
-      <c r="AL75" s="3">
-        <v>13</v>
-      </c>
       <c r="AM75" s="6">
-        <v>2352</v>
+        <v>3106</v>
       </c>
       <c r="AN75" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO75" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AP75" s="6">
-        <v>4032</v>
+        <v>5417</v>
       </c>
       <c r="AQ75" s="6">
-        <v>10341</v>
+        <v>12041</v>
       </c>
     </row>
   </sheetData>
